--- a/biology/Botanique/Memecylon_nodosum/Memecylon_nodosum.xlsx
+++ b/biology/Botanique/Memecylon_nodosum/Memecylon_nodosum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Memecylon nodosum est une plante de la famille des Melastomataceae[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Memecylon nodosum est une plante de la famille des Melastomataceae.
 </t>
         </is>
       </c>
@@ -511,13 +523,15 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Memecylon nodosum est présente dans les pays suivants :
- Cameroun[3],[4].
- République démocratique du Congo[3]
- Gabon[3]
- Guinée équatoriale[3]</t>
+ Cameroun,.
+ République démocratique du Congo
+ Gabon
+ Guinée équatoriale</t>
         </is>
       </c>
     </row>
@@ -547,10 +561,15 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Liste des sous-espèces et variétés
-Selon Catalogue of Life                                   (29 juin 2017)[5] :
+          <t>Liste des sous-espèces et variétés</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon Catalogue of Life                                   (29 juin 2017) :
 variété Memecylon nodosum var. stenophyllum H. Jacques-Félix
-Selon Tropicos                                           (29 juin 2017)[6] :
+Selon Tropicos                                           (29 juin 2017) :
 variété Memecylon nodosum var. nodosum
 variété Memecylon nodosum var. stenophyllum Jacq.-Fél.</t>
         </is>
